--- a/Foods.xlsx
+++ b/Foods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyo\Desktop\Elin Stuff\TableProcessor\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC51576-52C8-4BE3-B71F-BE478AA0894A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D547BC0-2B6B-4073-8661-A54CF42D172D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4610,8 +4610,8 @@
   <dimension ref="A1:R1352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1344" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1356" sqref="L1356"/>
+      <pane ySplit="1" topLeftCell="A1348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1360" sqref="H1360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40097,7 +40097,7 @@
         <v>0</v>
       </c>
       <c r="J634" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K634" s="9">
         <v>0</v>
@@ -41612,7 +41612,7 @@
         <v>0</v>
       </c>
       <c r="K661" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L661" s="9">
         <v>0</v>
@@ -41724,7 +41724,7 @@
         <v>0</v>
       </c>
       <c r="K663" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L663" s="9">
         <v>0</v>
@@ -41948,7 +41948,7 @@
         <v>0</v>
       </c>
       <c r="K667" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L667" s="9">
         <v>3</v>
@@ -42004,7 +42004,7 @@
         <v>0</v>
       </c>
       <c r="K668" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L668" s="9">
         <v>0</v>
@@ -42455,7 +42455,7 @@
         <v>0</v>
       </c>
       <c r="L676" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M676" s="9">
         <v>3</v>
@@ -43183,7 +43183,7 @@
         <v>3</v>
       </c>
       <c r="L689" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M689" s="9">
         <v>0</v>
@@ -43690,7 +43690,7 @@
         <v>4</v>
       </c>
       <c r="M698" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N698" s="9">
         <v>0</v>
@@ -44698,7 +44698,7 @@
         <v>0</v>
       </c>
       <c r="M716" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N716" s="9">
         <v>0</v>
@@ -45149,7 +45149,7 @@
         <v>0</v>
       </c>
       <c r="N724" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O724" s="9">
         <v>3</v>
@@ -46384,7 +46384,7 @@
         <v>3</v>
       </c>
       <c r="O746" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P746" s="9">
         <v>0</v>
@@ -46496,7 +46496,7 @@
         <v>0</v>
       </c>
       <c r="O748" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P748" s="9">
         <v>0</v>
@@ -46552,7 +46552,7 @@
         <v>0</v>
       </c>
       <c r="O749" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P749" s="9">
         <v>0</v>
@@ -46720,7 +46720,7 @@
         <v>0</v>
       </c>
       <c r="O752" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P752" s="9">
         <v>0</v>
@@ -47843,7 +47843,7 @@
         <v>0</v>
       </c>
       <c r="P772" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q772" s="9">
         <v>0</v>
@@ -48291,7 +48291,7 @@
         <v>0</v>
       </c>
       <c r="P780" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q780" s="9">
         <v>0</v>
@@ -48686,7 +48686,7 @@
         <v>0</v>
       </c>
       <c r="Q787" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R787" s="10" t="s">
         <v>985</v>
@@ -49246,7 +49246,7 @@
         <v>0</v>
       </c>
       <c r="Q797" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R797" s="10" t="s">
         <v>986</v>
@@ -49414,7 +49414,7 @@
         <v>0</v>
       </c>
       <c r="Q800" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R800" s="10" t="s">
         <v>986</v>
@@ -49470,7 +49470,7 @@
         <v>0</v>
       </c>
       <c r="Q801" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R801" s="10" t="s">
         <v>986</v>
@@ -49582,7 +49582,7 @@
         <v>0</v>
       </c>
       <c r="Q803" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R803" s="10" t="s">
         <v>986</v>
@@ -49638,7 +49638,7 @@
         <v>0</v>
       </c>
       <c r="Q804" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R804" s="10" t="s">
         <v>986</v>
@@ -49953,7 +49953,7 @@
         <v>0</v>
       </c>
       <c r="J810" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K810" s="4">
         <v>0</v>
@@ -51468,7 +51468,7 @@
         <v>0</v>
       </c>
       <c r="K837" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L837" s="4">
         <v>0</v>
@@ -51580,7 +51580,7 @@
         <v>0</v>
       </c>
       <c r="K839" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L839" s="4">
         <v>0</v>
@@ -51804,7 +51804,7 @@
         <v>0</v>
       </c>
       <c r="K843" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L843" s="4">
         <v>3</v>
@@ -51860,7 +51860,7 @@
         <v>0</v>
       </c>
       <c r="K844" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L844" s="4">
         <v>0</v>
@@ -52311,7 +52311,7 @@
         <v>0</v>
       </c>
       <c r="L852" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M852" s="4">
         <v>3</v>
@@ -53039,7 +53039,7 @@
         <v>3</v>
       </c>
       <c r="L865" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M865" s="4">
         <v>0</v>
@@ -53546,7 +53546,7 @@
         <v>4</v>
       </c>
       <c r="M874" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N874" s="4">
         <v>0</v>
@@ -54554,7 +54554,7 @@
         <v>0</v>
       </c>
       <c r="M892" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N892" s="4">
         <v>0</v>
@@ -55005,7 +55005,7 @@
         <v>0</v>
       </c>
       <c r="N900" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O900" s="4">
         <v>3</v>
@@ -56240,7 +56240,7 @@
         <v>3</v>
       </c>
       <c r="O922" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P922" s="4">
         <v>0</v>
@@ -56352,7 +56352,7 @@
         <v>0</v>
       </c>
       <c r="O924" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P924" s="4">
         <v>0</v>
@@ -56408,7 +56408,7 @@
         <v>0</v>
       </c>
       <c r="O925" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P925" s="4">
         <v>0</v>
@@ -56576,7 +56576,7 @@
         <v>0</v>
       </c>
       <c r="O928" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P928" s="4">
         <v>0</v>
@@ -57699,7 +57699,7 @@
         <v>0</v>
       </c>
       <c r="P948" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q948" s="4">
         <v>0</v>
@@ -58147,7 +58147,7 @@
         <v>0</v>
       </c>
       <c r="P956" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q956" s="4">
         <v>0</v>
@@ -58542,7 +58542,7 @@
         <v>0</v>
       </c>
       <c r="Q963" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R963" s="10" t="s">
         <v>989</v>
@@ -59102,7 +59102,7 @@
         <v>0</v>
       </c>
       <c r="Q973" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R973" s="10" t="s">
         <v>989</v>
@@ -59270,7 +59270,7 @@
         <v>0</v>
       </c>
       <c r="Q976" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R976" s="10" t="s">
         <v>989</v>
@@ -59326,7 +59326,7 @@
         <v>0</v>
       </c>
       <c r="Q977" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R977" s="10" t="s">
         <v>989</v>
@@ -59438,7 +59438,7 @@
         <v>0</v>
       </c>
       <c r="Q979" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R979" s="10" t="s">
         <v>989</v>
@@ -59494,7 +59494,7 @@
         <v>0</v>
       </c>
       <c r="Q980" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R980" s="10" t="s">
         <v>989</v>
@@ -77178,7 +77178,7 @@
         <v>0</v>
       </c>
       <c r="M1296" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N1296" s="8">
         <v>0</v>
@@ -77517,7 +77517,7 @@
         <v>0</v>
       </c>
       <c r="N1302" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O1302" s="8">
         <v>0</v>
@@ -77629,7 +77629,7 @@
         <v>0</v>
       </c>
       <c r="N1304" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O1304" s="8">
         <v>0</v>
@@ -77965,7 +77965,7 @@
         <v>0</v>
       </c>
       <c r="N1310" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O1310" s="8">
         <v>0</v>
@@ -78021,7 +78021,7 @@
         <v>0</v>
       </c>
       <c r="N1311" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O1311" s="8">
         <v>0</v>
@@ -78077,7 +78077,7 @@
         <v>0</v>
       </c>
       <c r="N1312" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O1312" s="8">
         <v>0</v>
@@ -78133,7 +78133,7 @@
         <v>0</v>
       </c>
       <c r="N1313" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O1313" s="8">
         <v>0</v>
@@ -79259,7 +79259,7 @@
         <v>0</v>
       </c>
       <c r="P1333" s="8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q1333" s="8">
         <v>0</v>
@@ -79483,7 +79483,7 @@
         <v>0</v>
       </c>
       <c r="P1337" s="8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q1337" s="8">
         <v>0</v>

--- a/Foods.xlsx
+++ b/Foods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nyo\Desktop\Elin Stuff\TableProcessor\Isolation2_UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB40EC81-3D4C-4E3D-9929-BC7871FE0083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF41BA37-EB23-4569-8B0D-B246B949A72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8616CB03-2BF7-4E55-A37F-333EE80B3667}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0B259179-720F-4DEA-9DCA-903F115F01A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -837,253 +837,253 @@
     <t>God Egg</t>
   </si>
   <si>
-    <t>fert.Yerles Egg</t>
-  </si>
-  <si>
-    <t>fert.Eulderna Egg</t>
-  </si>
-  <si>
-    <t>fert.Elea Egg</t>
-  </si>
-  <si>
-    <t>fert.Hillfolk Egg</t>
-  </si>
-  <si>
-    <t>fert.Juere Egg</t>
-  </si>
-  <si>
-    <t>fert.Norland Egg</t>
-  </si>
-  <si>
-    <t>fert.Roran Egg</t>
-  </si>
-  <si>
-    <t>fert.Mifu Egg</t>
-  </si>
-  <si>
-    <t>fert.Nefu Egg</t>
-  </si>
-  <si>
-    <t>fert.Succubus Egg</t>
-  </si>
-  <si>
-    <t>fert.Apostle Egg</t>
-  </si>
-  <si>
-    <t>fert.Catsister Egg</t>
-  </si>
-  <si>
-    <t>fert.Demigod Egg</t>
-  </si>
-  <si>
-    <t>fert.Mermaid Egg</t>
-  </si>
-  <si>
-    <t>fert.Giant Egg</t>
-  </si>
-  <si>
-    <t>fert.Asura Egg</t>
-  </si>
-  <si>
-    <t>fert.Yeek Egg</t>
-  </si>
-  <si>
-    <t>fert.Yith Egg</t>
-  </si>
-  <si>
-    <t>fert.Dog Egg</t>
-  </si>
-  <si>
-    <t>fert.Rock Egg</t>
-  </si>
-  <si>
-    <t>fert.Imp Egg</t>
-  </si>
-  <si>
-    <t>fert.Wisp Egg</t>
-  </si>
-  <si>
-    <t>fert.Rabbit Egg</t>
-  </si>
-  <si>
-    <t>fert.Horse Egg</t>
-  </si>
-  <si>
-    <t>fert.Ent Egg</t>
-  </si>
-  <si>
-    <t>fert.Wolf Egg</t>
-  </si>
-  <si>
-    <t>fert.Orc Egg</t>
-  </si>
-  <si>
-    <t>fert.Skeleton Egg</t>
-  </si>
-  <si>
-    <t>fert.Frog Egg</t>
-  </si>
-  <si>
-    <t>fert.Chaos Egg</t>
-  </si>
-  <si>
-    <t>fert.Snail Egg</t>
-  </si>
-  <si>
-    <t>fert.Crab Egg</t>
-  </si>
-  <si>
-    <t>fert.Machine Egg</t>
-  </si>
-  <si>
-    <t>fert.Machinegod Egg</t>
-  </si>
-  <si>
-    <t>fert.Mushroom Egg</t>
-  </si>
-  <si>
-    <t>fert.Cupid Egg</t>
-  </si>
-  <si>
-    <t>fert.Dinosaur Egg</t>
-  </si>
-  <si>
-    <t>fert.Quickling Egg</t>
-  </si>
-  <si>
-    <t>fert.Bear Egg</t>
-  </si>
-  <si>
-    <t>fert.Spider Egg</t>
-  </si>
-  <si>
-    <t>fert.Cerberus Egg</t>
-  </si>
-  <si>
-    <t>fert.Bat Egg</t>
-  </si>
-  <si>
-    <t>fert.Golem Egg</t>
-  </si>
-  <si>
-    <t>fert.Ancient Crab Egg</t>
-  </si>
-  <si>
-    <t>fert.Goblin Egg</t>
-  </si>
-  <si>
-    <t>fert.Kobold Egg</t>
-  </si>
-  <si>
-    <t>fert.Piece Egg</t>
-  </si>
-  <si>
-    <t>fert.Insect Egg</t>
-  </si>
-  <si>
-    <t>fert.Shiba Egg</t>
-  </si>
-  <si>
-    <t>fert.Stalker Egg</t>
-  </si>
-  <si>
-    <t>fert.Slime Egg</t>
-  </si>
-  <si>
-    <t>fert.Spirit Egg</t>
-  </si>
-  <si>
-    <t>fert.Zombie Egg</t>
-  </si>
-  <si>
-    <t>fert.Hand Egg</t>
-  </si>
-  <si>
-    <t>fert.Dragon Egg</t>
-  </si>
-  <si>
-    <t>fert.Drake Egg</t>
-  </si>
-  <si>
-    <t>fert.Troll Egg</t>
-  </si>
-  <si>
-    <t>fert.Chicken Egg</t>
-  </si>
-  <si>
-    <t>fert.Cat Egg</t>
-  </si>
-  <si>
-    <t>fert.Rat Egg</t>
-  </si>
-  <si>
-    <t>fert.Harpy Egg</t>
-  </si>
-  <si>
-    <t>fert.Bike Egg</t>
-  </si>
-  <si>
-    <t>fert.Sheep Egg</t>
-  </si>
-  <si>
-    <t>fert.Phantom Egg</t>
-  </si>
-  <si>
-    <t>fert.Snake Egg</t>
-  </si>
-  <si>
-    <t>fert.Pig Egg</t>
-  </si>
-  <si>
-    <t>fert.Mandrake Egg</t>
-  </si>
-  <si>
-    <t>fert.Minotaur Egg</t>
-  </si>
-  <si>
-    <t>fert.Centipede Egg</t>
-  </si>
-  <si>
-    <t>fert.Eye Egg</t>
-  </si>
-  <si>
-    <t>fert.Metal Egg</t>
-  </si>
-  <si>
-    <t>fert.Medusa Egg</t>
-  </si>
-  <si>
-    <t>fert.Hermit Egg</t>
-  </si>
-  <si>
-    <t>fert.Wraith Egg</t>
-  </si>
-  <si>
-    <t>fert.Ghost Egg</t>
-  </si>
-  <si>
-    <t>fert.Fairy Egg</t>
-  </si>
-  <si>
-    <t>fert.Armor Egg</t>
-  </si>
-  <si>
-    <t>fert.Lizardman Egg</t>
-  </si>
-  <si>
-    <t>fert.Lich Egg</t>
-  </si>
-  <si>
-    <t>fert.Hound Egg</t>
-  </si>
-  <si>
-    <t>fert.Wyvern Egg</t>
-  </si>
-  <si>
-    <t>fert.Wasp Egg</t>
-  </si>
-  <si>
-    <t>fert.God Egg</t>
+    <t>fert. Yerles Egg</t>
+  </si>
+  <si>
+    <t>fert. Eulderna Egg</t>
+  </si>
+  <si>
+    <t>fert. Elea Egg</t>
+  </si>
+  <si>
+    <t>fert. Hillfolk Egg</t>
+  </si>
+  <si>
+    <t>fert. Juere Egg</t>
+  </si>
+  <si>
+    <t>fert. Norland Egg</t>
+  </si>
+  <si>
+    <t>fert. Roran Egg</t>
+  </si>
+  <si>
+    <t>fert. Mifu Egg</t>
+  </si>
+  <si>
+    <t>fert. Nefu Egg</t>
+  </si>
+  <si>
+    <t>fert. Succubus Egg</t>
+  </si>
+  <si>
+    <t>fert. Apostle Egg</t>
+  </si>
+  <si>
+    <t>fert. Catsister Egg</t>
+  </si>
+  <si>
+    <t>fert. Demigod Egg</t>
+  </si>
+  <si>
+    <t>fert. Mermaid Egg</t>
+  </si>
+  <si>
+    <t>fert. Giant Egg</t>
+  </si>
+  <si>
+    <t>fert. Asura Egg</t>
+  </si>
+  <si>
+    <t>fert. Yeek Egg</t>
+  </si>
+  <si>
+    <t>fert. Yith Egg</t>
+  </si>
+  <si>
+    <t>fert. Dog Egg</t>
+  </si>
+  <si>
+    <t>fert. Rock Egg</t>
+  </si>
+  <si>
+    <t>fert. Imp Egg</t>
+  </si>
+  <si>
+    <t>fert. Wisp Egg</t>
+  </si>
+  <si>
+    <t>fert. Rabbit Egg</t>
+  </si>
+  <si>
+    <t>fert. Horse Egg</t>
+  </si>
+  <si>
+    <t>fert. Ent Egg</t>
+  </si>
+  <si>
+    <t>fert. Wolf Egg</t>
+  </si>
+  <si>
+    <t>fert. Orc Egg</t>
+  </si>
+  <si>
+    <t>fert. Skeleton Egg</t>
+  </si>
+  <si>
+    <t>fert. Frog Egg</t>
+  </si>
+  <si>
+    <t>fert. Chaos Egg</t>
+  </si>
+  <si>
+    <t>fert. Snail Egg</t>
+  </si>
+  <si>
+    <t>fert. Crab Egg</t>
+  </si>
+  <si>
+    <t>fert. Machine Egg</t>
+  </si>
+  <si>
+    <t>fert. Machinegod Egg</t>
+  </si>
+  <si>
+    <t>fert. Mushroom Egg</t>
+  </si>
+  <si>
+    <t>fert. Cupid Egg</t>
+  </si>
+  <si>
+    <t>fert. Dinosaur Egg</t>
+  </si>
+  <si>
+    <t>fert. Quickling Egg</t>
+  </si>
+  <si>
+    <t>fert. Bear Egg</t>
+  </si>
+  <si>
+    <t>fert. Spider Egg</t>
+  </si>
+  <si>
+    <t>fert. Cerberus Egg</t>
+  </si>
+  <si>
+    <t>fert. Bat Egg</t>
+  </si>
+  <si>
+    <t>fert. Golem Egg</t>
+  </si>
+  <si>
+    <t>fert. Ancient Crab Egg</t>
+  </si>
+  <si>
+    <t>fert. Goblin Egg</t>
+  </si>
+  <si>
+    <t>fert. Kobold Egg</t>
+  </si>
+  <si>
+    <t>fert. Piece Egg</t>
+  </si>
+  <si>
+    <t>fert. Insect Egg</t>
+  </si>
+  <si>
+    <t>fert. Shiba Egg</t>
+  </si>
+  <si>
+    <t>fert. Stalker Egg</t>
+  </si>
+  <si>
+    <t>fert. Slime Egg</t>
+  </si>
+  <si>
+    <t>fert. Spirit Egg</t>
+  </si>
+  <si>
+    <t>fert. Zombie Egg</t>
+  </si>
+  <si>
+    <t>fert. Hand Egg</t>
+  </si>
+  <si>
+    <t>fert. Dragon Egg</t>
+  </si>
+  <si>
+    <t>fert. Drake Egg</t>
+  </si>
+  <si>
+    <t>fert. Troll Egg</t>
+  </si>
+  <si>
+    <t>fert. Chicken Egg</t>
+  </si>
+  <si>
+    <t>fert. Cat Egg</t>
+  </si>
+  <si>
+    <t>fert. Rat Egg</t>
+  </si>
+  <si>
+    <t>fert. Harpy Egg</t>
+  </si>
+  <si>
+    <t>fert. Bike Egg</t>
+  </si>
+  <si>
+    <t>fert. Sheep Egg</t>
+  </si>
+  <si>
+    <t>fert. Phantom Egg</t>
+  </si>
+  <si>
+    <t>fert. Snake Egg</t>
+  </si>
+  <si>
+    <t>fert. Pig Egg</t>
+  </si>
+  <si>
+    <t>fert. Mandrake Egg</t>
+  </si>
+  <si>
+    <t>fert. Minotaur Egg</t>
+  </si>
+  <si>
+    <t>fert. Centipede Egg</t>
+  </si>
+  <si>
+    <t>fert. Eye Egg</t>
+  </si>
+  <si>
+    <t>fert. Metal Egg</t>
+  </si>
+  <si>
+    <t>fert. Medusa Egg</t>
+  </si>
+  <si>
+    <t>fert. Hermit Egg</t>
+  </si>
+  <si>
+    <t>fert. Wraith Egg</t>
+  </si>
+  <si>
+    <t>fert. Ghost Egg</t>
+  </si>
+  <si>
+    <t>fert. Fairy Egg</t>
+  </si>
+  <si>
+    <t>fert. Armor Egg</t>
+  </si>
+  <si>
+    <t>fert. Lizardman Egg</t>
+  </si>
+  <si>
+    <t>fert. Lich Egg</t>
+  </si>
+  <si>
+    <t>fert. Hound Egg</t>
+  </si>
+  <si>
+    <t>fert. Wyvern Egg</t>
+  </si>
+  <si>
+    <t>fert. Wasp Egg</t>
+  </si>
+  <si>
+    <t>fert. God Egg</t>
   </si>
   <si>
     <t>Rice</t>
@@ -3828,253 +3828,253 @@
     <t>cha Crim Cheese</t>
   </si>
   <si>
-    <t>fert.Yerles Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Eulderna Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Elea Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Hillfolk Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Juere Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Norland Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Roran Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Mifu Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Nefu Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Succubus Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Apostle Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Catsister Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Demigod Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Mermaid Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Giant Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Asura Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Yeek Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Yith Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Dog Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Rock Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Imp Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Wisp Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Rabbit Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Horse Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Ent Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Wolf Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Orc Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Skeleton Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Frog Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Chaos Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Snail Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Crab Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Machine Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Machinegod Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Mushroom Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Cupid Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Dinosaur Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Quickling Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Bear Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Spider Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Cerberus Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Bat Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Golem Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Ancient Crab Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Goblin Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Kobold Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Piece Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Insect Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Shiba Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Stalker Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Slime Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Spirit Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Zombie Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Hand Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Dragon Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Drake Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Troll Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Chicken Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Cat Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Rat Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Harpy Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Bike Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Sheep Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Phantom Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Snake Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Pig Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Mandrake Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Minotaur Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Centipede Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Eye Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Metal Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Medusa Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Hermit Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Wraith Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Ghost Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Fairy Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Armor Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Lizardman Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Lich Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Hound Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Wyvern Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.Wasp Egg Cheese</t>
-  </si>
-  <si>
-    <t>fert.God Egg Cheese</t>
+    <t>fert. Yerles Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Eulderna Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Elea Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Hillfolk Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Juere Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Norland Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Roran Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Mifu Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Nefu Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Succubus Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Apostle Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Catsister Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Demigod Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Mermaid Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Giant Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Asura Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Yeek Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Yith Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Dog Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Rock Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Imp Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Wisp Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Rabbit Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Horse Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Ent Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Wolf Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Orc Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Skeleton Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Frog Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Chaos Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Snail Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Crab Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Machine Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Machinegod Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Mushroom Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Cupid Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Dinosaur Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Quickling Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Bear Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Spider Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Cerberus Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Bat Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Golem Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Ancient Crab Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Goblin Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Kobold Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Piece Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Insect Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Shiba Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Stalker Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Slime Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Spirit Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Zombie Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Hand Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Dragon Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Drake Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Troll Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Chicken Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Cat Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Rat Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Harpy Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Bike Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Sheep Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Phantom Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Snake Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Pig Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Mandrake Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Minotaur Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Centipede Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Eye Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Metal Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Medusa Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Hermit Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Wraith Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Ghost Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Fairy Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Armor Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Lizardman Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Lich Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Hound Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Wyvern Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. Wasp Egg Cheese</t>
+  </si>
+  <si>
+    <t>fert. God Egg Cheese</t>
   </si>
   <si>
     <t>Apostle Meat Cheese</t>
@@ -4998,7 +4998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472ECC28-983B-4576-89E3-F17D4B69A795}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9119BD64-3529-4F7B-9F92-18738EAE07F4}">
   <dimension ref="A1:S1498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
